--- a/debugging/debuggingexcel.xlsx
+++ b/debugging/debuggingexcel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wedu\Desktop\Working Repository\finalcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wedu\Desktop\Working Repository\finalcode\debugging\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
   <si>
     <t>inhale</t>
   </si>
@@ -205,13 +205,16 @@
   </si>
   <si>
     <t>[[  9.75655377e-01   2.36603040e-02   6.84295432e-04]]</t>
+  </si>
+  <si>
+    <t>Graph Version 4 Run-Through Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +355,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="36">
@@ -713,7 +722,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
@@ -721,6 +730,7 @@
     <xf numFmtId="0" fontId="14" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1076,44 +1086,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="O63" sqref="O63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+    <row r="1" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1176,7 +1176,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
@@ -1185,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>0</v>
@@ -1221,7 +1221,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1284,7 +1284,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1301,58 +1301,58 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
+        <v>129</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>134</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>135</v>
       </c>
-      <c r="B14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>136</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1369,40 +1369,40 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
+        <v>143</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>146</v>
       </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>150</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>0</v>
@@ -1411,7 +1411,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1419,22 +1419,26 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>159</v>
-      </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
+      <c r="A20" s="2">
+        <v>158</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
@@ -1443,12 +1447,12 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
         <v>0</v>
@@ -1457,26 +1461,26 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
         <v>0</v>
@@ -1485,26 +1489,26 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
         <v>0</v>
@@ -1513,12 +1517,12 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
@@ -1527,12 +1531,12 @@
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B28" t="s">
         <v>0</v>
@@ -1541,150 +1545,150 @@
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>191</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>194</v>
       </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="2" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>2</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D31" s="3" t="s">
+      <c r="B32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>3</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>10</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="3" t="s">
+      <c r="B34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>11</v>
       </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>81</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
+        <v>81</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
         <v>87</v>
       </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>94</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -1693,12 +1697,12 @@
         <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -1707,40 +1711,40 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
+        <v>159</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>179</v>
       </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>215</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
@@ -1749,12 +1753,12 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -1763,12 +1767,12 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -1777,12 +1781,12 @@
         <v>3</v>
       </c>
       <c r="D44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>310</v>
+        <v>259</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -1791,12 +1795,12 @@
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -1805,40 +1809,40 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
+        <v>315</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
         <v>316</v>
       </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>321</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="D48" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -1847,116 +1851,113 @@
         <v>3</v>
       </c>
       <c r="D49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>330</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>12</v>
       </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>31</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="B52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>34</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" t="s">
-        <v>54</v>
-      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="C53" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>124</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>126</v>
       </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>169</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>3</v>
@@ -1965,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -1973,7 +1974,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>3</v>
@@ -1982,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -1990,7 +1991,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>3</v>
@@ -1999,14 +2000,31 @@
         <v>0</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
     </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>177</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>